--- a/public/StudentData/mahasiswa.xlsx
+++ b/public/StudentData/mahasiswa.xlsx
@@ -23,7 +23,7 @@
     <t>Ricky Student</t>
   </si>
   <si>
-    <t>2023-02-16T22:23:54.000000Z</t>
+    <t>2023-02-17T21:59:33.000000Z</t>
   </si>
   <si>
     <t>Ricky Student2</t>

--- a/public/StudentData/mahasiswa.xlsx
+++ b/public/StudentData/mahasiswa.xlsx
@@ -17,19 +17,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t>1ia01</t>
+    <t>1IA01</t>
   </si>
   <si>
-    <t>Ricky Student</t>
+    <t>User Mahasiswa1</t>
   </si>
   <si>
-    <t>2023-02-17T21:59:33.000000Z</t>
+    <t>2023-02-20T16:57:19.000000Z</t>
   </si>
   <si>
-    <t>Ricky Student2</t>
+    <t>User Mahasiswa2</t>
   </si>
   <si>
-    <t>Ricky Student3</t>
+    <t>User Mahasiswa3</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>56418102</v>
+        <v>56418001</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -401,7 +401,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>56418103</v>
+        <v>56418002</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>56418104</v>
+        <v>56418003</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>

--- a/public/StudentData/mahasiswa.xlsx
+++ b/public/StudentData/mahasiswa.xlsx
@@ -1,29 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26219"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDEC0F0B-7013-4E85-9739-795CCAF80A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191028" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>1IA01</t>
   </si>
   <si>
     <t>User Mahasiswa1</t>
-  </si>
-  <si>
-    <t>2023-02-20T16:57:19.000000Z</t>
   </si>
   <si>
     <t>User Mahasiswa2</t>
@@ -35,14 +45,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -57,21 +62,33 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -361,19 +378,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -386,14 +404,8 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -404,16 +416,10 @@
         <v>56418002</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -424,27 +430,10 @@
         <v>56418003</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>